--- a/TestData/Iwebshop/iwebshop.xlsx
+++ b/TestData/Iwebshop/iwebshop.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205">
   <si>
     <t>接口名称</t>
   </si>
@@ -45,397 +45,403 @@
     <t>接口地址</t>
   </si>
   <si>
-    <t>参数controller</t>
-  </si>
-  <si>
-    <t>参数action</t>
-  </si>
-  <si>
-    <t>参数admin_name</t>
+    <t>参数：controller</t>
+  </si>
+  <si>
+    <t>参数：action</t>
+  </si>
+  <si>
+    <t>参数：admin_name</t>
+  </si>
+  <si>
+    <t>参数：password</t>
+  </si>
+  <si>
+    <t>参数：captcha</t>
+  </si>
+  <si>
+    <t>断言</t>
+  </si>
+  <si>
+    <t>预期结果</t>
+  </si>
+  <si>
+    <t>实际结果</t>
+  </si>
+  <si>
+    <t>后台登录</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>http://192.168.1.167/iwebshop/index.php</t>
+  </si>
+  <si>
+    <t>systemadmin</t>
+  </si>
+  <si>
+    <t>login_act</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>mafag</t>
+  </si>
+  <si>
+    <t>domresult.title()</t>
+  </si>
+  <si>
+    <t>后台管理</t>
+  </si>
+  <si>
+    <t>参数：id</t>
+  </si>
+  <si>
+    <t>参数：img</t>
+  </si>
+  <si>
+    <t>参数：_imgList</t>
+  </si>
+  <si>
+    <t>参数：callback</t>
+  </si>
+  <si>
+    <t>参数：name</t>
+  </si>
+  <si>
+    <t>参数：search_words</t>
+  </si>
+  <si>
+    <t>参数：seller_id</t>
+  </si>
+  <si>
+    <t>参数：_goods_category[]</t>
+  </si>
+  <si>
+    <t>参数：is_del</t>
+  </si>
+  <si>
+    <t>参数：is_share</t>
+  </si>
+  <si>
+    <t>参数：is_delivery_fee</t>
+  </si>
+  <si>
+    <t>参数：point</t>
+  </si>
+  <si>
+    <t>参数：sort</t>
+  </si>
+  <si>
+    <t>参数：unit</t>
+  </si>
+  <si>
+    <t>参数：exp</t>
+  </si>
+  <si>
+    <t>参数：_goods_no[0]</t>
+  </si>
+  <si>
+    <t>参数：_store_nums[0]</t>
+  </si>
+  <si>
+    <t>参数：_market_price[0]point</t>
+  </si>
+  <si>
+    <t>参数：_groupPrice[0]</t>
+  </si>
+  <si>
+    <t>参数：_sell_price[0]</t>
+  </si>
+  <si>
+    <t>参数：_cost_price[0]</t>
+  </si>
+  <si>
+    <t>参数：_weight[0]</t>
+  </si>
+  <si>
+    <t>参数：model_id</t>
+  </si>
+  <si>
+    <t>参数：_goods_commend[]</t>
+  </si>
+  <si>
+    <t>参数：brand_id</t>
+  </si>
+  <si>
+    <t>参数：content</t>
+  </si>
+  <si>
+    <t>参数：keywords</t>
+  </si>
+  <si>
+    <t>参数：description</t>
+  </si>
+  <si>
+    <t>添加商品</t>
+  </si>
+  <si>
+    <t>http://192.168.1.167/iwebshop/index.php?controller=goods&amp;action=goods_list</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>upload/2017/04/19/20170419095104618.jpg</t>
+  </si>
+  <si>
+    <t>/goods/goods_list</t>
+  </si>
+  <si>
+    <t>木瓜</t>
+  </si>
+  <si>
+    <t>木瓜,水果</t>
+  </si>
+  <si>
+    <t>件</t>
+  </si>
+  <si>
+    <t>SD149256656199</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>document.title()</t>
+  </si>
+  <si>
+    <t>参数username</t>
   </si>
   <si>
     <t>参数password</t>
   </si>
   <si>
-    <t>参数captcha</t>
-  </si>
-  <si>
-    <t>断言</t>
-  </si>
-  <si>
-    <t>预期结果</t>
-  </si>
-  <si>
-    <t>实际结果</t>
-  </si>
-  <si>
-    <t>后台登录</t>
-  </si>
-  <si>
-    <t>post</t>
-  </si>
-  <si>
-    <t>http://192.168.1.167/iwebshop/index.php</t>
-  </si>
-  <si>
-    <t>systemadmin</t>
-  </si>
-  <si>
-    <t>login_act</t>
-  </si>
-  <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>mafag</t>
-  </si>
-  <si>
-    <t>domresult.title()</t>
-  </si>
-  <si>
-    <t>后台管理</t>
-  </si>
-  <si>
-    <t>参数id</t>
-  </si>
-  <si>
-    <t>参数img</t>
-  </si>
-  <si>
-    <t>参数_imgList</t>
-  </si>
-  <si>
-    <t>参数callback</t>
-  </si>
-  <si>
-    <t>参数name</t>
-  </si>
-  <si>
-    <t>参数search_words</t>
-  </si>
-  <si>
-    <t>参数seller_id</t>
-  </si>
-  <si>
-    <t>参数_goods_category[]</t>
-  </si>
-  <si>
-    <t>参数is_del</t>
-  </si>
-  <si>
-    <t>参数is_share</t>
-  </si>
-  <si>
-    <t>参数is_delivery_fee</t>
-  </si>
-  <si>
-    <t>参数point</t>
-  </si>
-  <si>
-    <t>参数sort</t>
-  </si>
-  <si>
-    <t>参数unit</t>
-  </si>
-  <si>
-    <t>参数exp</t>
-  </si>
-  <si>
-    <t>参数_goods_no[0]</t>
-  </si>
-  <si>
-    <t>参数_store_nums[0]</t>
-  </si>
-  <si>
-    <t>参数_market_price[0]point</t>
-  </si>
-  <si>
-    <t>参数_groupPrice[0]</t>
-  </si>
-  <si>
-    <t>参数_sell_price[0]</t>
-  </si>
-  <si>
-    <t>参数_cost_price[0]</t>
-  </si>
-  <si>
-    <t>参数_weight[0]</t>
-  </si>
-  <si>
-    <t>参数model_id</t>
-  </si>
-  <si>
-    <t>参数_goods_commend[]</t>
-  </si>
-  <si>
-    <t>参数brand_id</t>
+    <t>参数csrf_token</t>
+  </si>
+  <si>
+    <t>getElement_Key</t>
+  </si>
+  <si>
+    <t>getElement_Value</t>
+  </si>
+  <si>
+    <t>attr_Key</t>
+  </si>
+  <si>
+    <t>前台登录</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>http://192.168.42.128/phpwind/index.php?m=u&amp;c=login&amp;a=dologin</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>csrf_token</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>成功提示 - phpwind 9.0 - Powered by phpwind</t>
+  </si>
+  <si>
+    <t>获取csrf_token</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>http://192.168.42.128/phpwind/admin.php</t>
+  </si>
+  <si>
+    <t>系统后台 - phpwind 9.0 - Powered by phpwind</t>
+  </si>
+  <si>
+    <t>参数submit</t>
+  </si>
+  <si>
+    <t>http://192.168.42.128/phpwind/admin.php?a=login</t>
+  </si>
+  <si>
+    <t>参数m</t>
+  </si>
+  <si>
+    <t>参数c</t>
+  </si>
+  <si>
+    <t>参数a</t>
+  </si>
+  <si>
+    <t>退出登录</t>
+  </si>
+  <si>
+    <t>http://192.168.42.128/phpwind/index.php</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>logout</t>
+  </si>
+  <si>
+    <t>本站新帖 - phpwind 9.0 - Powered by phpwind</t>
+  </si>
+  <si>
+    <t>http://localhost/phpwind/index.php</t>
+  </si>
+  <si>
+    <t>参数repassword</t>
+  </si>
+  <si>
+    <t>参数email</t>
+  </si>
+  <si>
+    <t>注册</t>
+  </si>
+  <si>
+    <t>http://192.168.42.128/phpwind/index.php?m=u&amp;c=register&amp;a=dorun</t>
+  </si>
+  <si>
+    <t>haha6</t>
+  </si>
+  <si>
+    <t>haha123456</t>
+  </si>
+  <si>
+    <t>haha6@qq.com</t>
+  </si>
+  <si>
+    <t>phpwind 9.0 - Powered by phpwind</t>
+  </si>
+  <si>
+    <t>haha2</t>
+  </si>
+  <si>
+    <t>haha2@qq.com</t>
+  </si>
+  <si>
+    <t>http://localhost/phpwind/index.php?m=u&amp;c=register&amp;a=dorun</t>
+  </si>
+  <si>
+    <t>haha1</t>
+  </si>
+  <si>
+    <t>haha1@qq.com</t>
+  </si>
+  <si>
+    <t>haha3</t>
+  </si>
+  <si>
+    <t>haha3@qq.com</t>
+  </si>
+  <si>
+    <t>admin123456</t>
+  </si>
+  <si>
+    <t>haha@qq.com</t>
+  </si>
+  <si>
+    <t>欢迎成为本网站的会员</t>
+  </si>
+  <si>
+    <t>domresult .getElementById(map.get("J_html_error")).text()</t>
+  </si>
+  <si>
+    <t>参数atc_title</t>
+  </si>
+  <si>
+    <t>参数atc_content</t>
+  </si>
+  <si>
+    <t>参数pid</t>
+  </si>
+  <si>
+    <t>参数tid</t>
+  </si>
+  <si>
+    <t>参数special</t>
+  </si>
+  <si>
+    <t>参数reply_notice</t>
+  </si>
+  <si>
+    <t>发帖</t>
+  </si>
+  <si>
+    <t>http://192.168.42.128/phpwind/index.php?c=post&amp;a=doadd&amp;_json=1&amp;fid=2</t>
+  </si>
+  <si>
+    <t>jmeter</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>success</t>
+  </si>
+  <si>
+    <t>$.state</t>
+  </si>
+  <si>
+    <t>http://localhost/phpwind/index.php?c=post&amp;a=doadd&amp;_json=1&amp;fid=2</t>
+  </si>
+  <si>
+    <t>回帖</t>
+  </si>
+  <si>
+    <t>http://192.168.42.128/phpwind/index.php?c=post&amp;a=doreply&amp;_json=1&amp;fid=2</t>
+  </si>
+  <si>
+    <t>http://192.168.42.128/phpwind/index.php?c=post&amp;a=reply&amp;tid=1</t>
+  </si>
+  <si>
+    <t>http://localhost/phpwind/index.php?c=post&amp;a=reply&amp;tid=1</t>
+  </si>
+  <si>
+    <t>存草稿</t>
+  </si>
+  <si>
+    <t>http://192.168.42.128/phpwind/index.php?c=draft&amp;a=doAdd</t>
+  </si>
+  <si>
+    <t>参数pids[]</t>
+  </si>
+  <si>
+    <t>删帖</t>
+  </si>
+  <si>
+    <t>http://192.168.42.128/phpwind/index.php?c=masingle&amp;a=delete</t>
+  </si>
+  <si>
+    <t>pids[]</t>
+  </si>
+  <si>
+    <t>tid</t>
+  </si>
+  <si>
+    <t>file</t>
+  </si>
+  <si>
+    <t>参数usernames[]</t>
   </si>
   <si>
     <t>参数content</t>
-  </si>
-  <si>
-    <t>参数keywords</t>
-  </si>
-  <si>
-    <t>参数description</t>
-  </si>
-  <si>
-    <t>添加商品</t>
-  </si>
-  <si>
-    <t>http://192.168.1.167/iwebshop/index.php?controller=goods&amp;action=goods_list</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>upload/2017/04/19/20170419095104618.jpg</t>
-  </si>
-  <si>
-    <t>/goods/goods_list</t>
-  </si>
-  <si>
-    <t>木瓜</t>
-  </si>
-  <si>
-    <t>木瓜,水果</t>
-  </si>
-  <si>
-    <t>件</t>
-  </si>
-  <si>
-    <t>SD149256656199</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>document.title()</t>
-  </si>
-  <si>
-    <t>参数username</t>
-  </si>
-  <si>
-    <t>参数csrf_token</t>
-  </si>
-  <si>
-    <t>getElement_Key</t>
-  </si>
-  <si>
-    <t>getElement_Value</t>
-  </si>
-  <si>
-    <t>attr_Key</t>
-  </si>
-  <si>
-    <t>前台登录</t>
-  </si>
-  <si>
-    <t>POST</t>
-  </si>
-  <si>
-    <t>http://192.168.42.128/phpwind/index.php?m=u&amp;c=login&amp;a=dologin</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>csrf_token</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>成功提示 - phpwind 9.0 - Powered by phpwind</t>
-  </si>
-  <si>
-    <t>获取csrf_token</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>http://192.168.42.128/phpwind/admin.php</t>
-  </si>
-  <si>
-    <t>系统后台 - phpwind 9.0 - Powered by phpwind</t>
-  </si>
-  <si>
-    <t>参数submit</t>
-  </si>
-  <si>
-    <t>http://192.168.42.128/phpwind/admin.php?a=login</t>
-  </si>
-  <si>
-    <t>参数m</t>
-  </si>
-  <si>
-    <t>参数c</t>
-  </si>
-  <si>
-    <t>参数a</t>
-  </si>
-  <si>
-    <t>退出登录</t>
-  </si>
-  <si>
-    <t>http://192.168.42.128/phpwind/index.php</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>login</t>
-  </si>
-  <si>
-    <t>logout</t>
-  </si>
-  <si>
-    <t>本站新帖 - phpwind 9.0 - Powered by phpwind</t>
-  </si>
-  <si>
-    <t>http://localhost/phpwind/index.php</t>
-  </si>
-  <si>
-    <t>参数repassword</t>
-  </si>
-  <si>
-    <t>参数email</t>
-  </si>
-  <si>
-    <t>注册</t>
-  </si>
-  <si>
-    <t>http://192.168.42.128/phpwind/index.php?m=u&amp;c=register&amp;a=dorun</t>
-  </si>
-  <si>
-    <t>haha6</t>
-  </si>
-  <si>
-    <t>haha123456</t>
-  </si>
-  <si>
-    <t>haha6@qq.com</t>
-  </si>
-  <si>
-    <t>phpwind 9.0 - Powered by phpwind</t>
-  </si>
-  <si>
-    <t>haha2</t>
-  </si>
-  <si>
-    <t>haha2@qq.com</t>
-  </si>
-  <si>
-    <t>http://localhost/phpwind/index.php?m=u&amp;c=register&amp;a=dorun</t>
-  </si>
-  <si>
-    <t>haha1</t>
-  </si>
-  <si>
-    <t>haha1@qq.com</t>
-  </si>
-  <si>
-    <t>haha3</t>
-  </si>
-  <si>
-    <t>haha3@qq.com</t>
-  </si>
-  <si>
-    <t>admin123456</t>
-  </si>
-  <si>
-    <t>haha@qq.com</t>
-  </si>
-  <si>
-    <t>欢迎成为本网站的会员</t>
-  </si>
-  <si>
-    <t>domresult .getElementById(map.get("J_html_error")).text()</t>
-  </si>
-  <si>
-    <t>参数atc_title</t>
-  </si>
-  <si>
-    <t>参数atc_content</t>
-  </si>
-  <si>
-    <t>参数pid</t>
-  </si>
-  <si>
-    <t>参数tid</t>
-  </si>
-  <si>
-    <t>参数special</t>
-  </si>
-  <si>
-    <t>参数reply_notice</t>
-  </si>
-  <si>
-    <t>发帖</t>
-  </si>
-  <si>
-    <t>http://192.168.42.128/phpwind/index.php?c=post&amp;a=doadd&amp;_json=1&amp;fid=2</t>
-  </si>
-  <si>
-    <t>jmeter</t>
-  </si>
-  <si>
-    <t>default</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>success</t>
-  </si>
-  <si>
-    <t>$.state</t>
-  </si>
-  <si>
-    <t>http://localhost/phpwind/index.php?c=post&amp;a=doadd&amp;_json=1&amp;fid=2</t>
-  </si>
-  <si>
-    <t>回帖</t>
-  </si>
-  <si>
-    <t>http://192.168.42.128/phpwind/index.php?c=post&amp;a=doreply&amp;_json=1&amp;fid=2</t>
-  </si>
-  <si>
-    <t>http://192.168.42.128/phpwind/index.php?c=post&amp;a=reply&amp;tid=1</t>
-  </si>
-  <si>
-    <t>http://localhost/phpwind/index.php?c=post&amp;a=reply&amp;tid=1</t>
-  </si>
-  <si>
-    <t>存草稿</t>
-  </si>
-  <si>
-    <t>http://192.168.42.128/phpwind/index.php?c=draft&amp;a=doAdd</t>
-  </si>
-  <si>
-    <t>参数pids[]</t>
-  </si>
-  <si>
-    <t>删帖</t>
-  </si>
-  <si>
-    <t>http://192.168.42.128/phpwind/index.php?c=masingle&amp;a=delete</t>
-  </si>
-  <si>
-    <t>pids[]</t>
-  </si>
-  <si>
-    <t>tid</t>
-  </si>
-  <si>
-    <t>file</t>
-  </si>
-  <si>
-    <t>参数usernames[]</t>
   </si>
   <si>
     <t>发私信</t>
@@ -651,9 +657,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -695,22 +701,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -724,11 +729,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -747,11 +759,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -763,22 +782,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -786,13 +800,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -806,7 +813,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -816,7 +822,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -843,7 +849,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -855,175 +1023,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1052,26 +1058,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1085,11 +1091,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1120,32 +1147,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1157,10 +1163,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1169,133 +1175,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1686,7 +1692,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
@@ -1816,13 +1822,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G1" s="14" t="s">
         <v>8</v>
@@ -1836,28 +1842,28 @@
     </row>
     <row r="2" s="3" customFormat="1" spans="1:9">
       <c r="A2" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>18</v>
@@ -1904,13 +1910,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>8</v>
@@ -1924,60 +1930,60 @@
     </row>
     <row r="2" s="4" customFormat="1" spans="1:9">
       <c r="A2" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2021,13 +2027,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>8</v>
@@ -2041,31 +2047,31 @@
     </row>
     <row r="2" s="4" customFormat="1" spans="1:9">
       <c r="A2" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2116,22 +2122,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>59</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J1" s="8" t="s">
         <v>8</v>
@@ -2145,40 +2151,40 @@
     </row>
     <row r="2" s="6" customFormat="1" ht="28.8" spans="1:12">
       <c r="A2" s="6" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="3:3">
@@ -2228,10 +2234,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>8</v>
@@ -2245,38 +2251,38 @@
     </row>
     <row r="2" s="6" customFormat="1" spans="1:8">
       <c r="A2" s="6" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="3:3">
       <c r="C4" s="9" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="3:3">
       <c r="C7" s="10" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -2317,7 +2323,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>8</v>
@@ -2331,25 +2337,25 @@
     </row>
     <row r="2" s="4" customFormat="1" spans="1:7">
       <c r="A2" s="4" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2388,7 +2394,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>8</v>
@@ -2402,25 +2408,25 @@
     </row>
     <row r="2" s="4" customFormat="1" spans="1:7">
       <c r="A2" s="4" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2468,37 +2474,37 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L1" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="M1" s="5" t="s">
-        <v>153</v>
-      </c>
       <c r="N1" s="5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="O1" s="5" t="s">
         <v>8</v>
@@ -2512,55 +2518,55 @@
     </row>
     <row r="2" s="4" customFormat="1" spans="1:17">
       <c r="A2" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L2" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="M2" s="4" t="s">
-        <v>162</v>
-      </c>
       <c r="N2" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2599,45 +2605,45 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E2">
         <v>2</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="O2" s="3">
         <v>7200</v>
@@ -2645,174 +2651,174 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B3" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C3">
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E3">
         <v>4</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M3" s="3"/>
       <c r="N3" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="4:14">
       <c r="D4" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E4">
         <v>5</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="4:14">
       <c r="D5" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E5">
         <v>6</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B6" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C6">
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E6">
         <v>8</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C7">
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E7">
         <v>10</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="4:14">
       <c r="D8" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E8">
         <v>11</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="4:14">
       <c r="D9" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E9">
         <v>12</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B10" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C10">
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E10">
         <v>12</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B11">
         <v>13</v>
@@ -2830,13 +2836,13 @@
         <v>23</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="2:14">
@@ -2850,49 +2856,49 @@
         <v>0</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="M12" s="3"/>
       <c r="N12" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="12:14">
       <c r="L13" s="3" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="12:14">
       <c r="L14" s="3" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="12:14">
       <c r="L15" s="3" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B16">
         <v>79</v>
@@ -2910,10 +2916,10 @@
         <v>89</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="2:14">
@@ -2930,29 +2936,29 @@
         <v>0</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="12:14">
       <c r="L18" s="3" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1">
@@ -2965,13 +2971,13 @@
         <v>3</v>
       </c>
       <c r="L19" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="N19" s="3" t="s">
         <v>195</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="N19" s="3" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="20" spans="3:14">
@@ -2988,13 +2994,13 @@
         <v>0</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="3:14">
@@ -3011,13 +3017,13 @@
         <v>1</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22" spans="3:14">
@@ -3034,13 +3040,13 @@
         <v>1</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="3:14">
@@ -3057,54 +3063,54 @@
         <v>0</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="24" spans="13:14">
       <c r="M24" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="12:14">
       <c r="L25" s="3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="12:14">
       <c r="L26" s="3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="12:14">
       <c r="L27" s="3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -3118,8 +3124,8 @@
   <sheetPr/>
   <dimension ref="A1:AH2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AE3" sqref="AE3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="26" customHeight="1" outlineLevelRow="1"/>
@@ -3394,22 +3400,22 @@
         <v>59</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K1" s="14" t="s">
         <v>8</v>
@@ -3423,40 +3429,40 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>50</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>18</v>
@@ -3506,13 +3512,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G1" s="20" t="s">
         <v>8</v>
@@ -3526,28 +3532,28 @@
     </row>
     <row r="2" s="12" customFormat="1" ht="26" customHeight="1" spans="1:9">
       <c r="A2" s="12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>50</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I2" s="12" t="s">
         <v>18</v>
@@ -3598,13 +3604,13 @@
         <v>59</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H1" s="14" t="s">
         <v>8</v>
@@ -3621,28 +3627,28 @@
         <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>57</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>18</v>
@@ -3692,13 +3698,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G1" s="14" t="s">
         <v>8</v>
@@ -3712,28 +3718,28 @@
     </row>
     <row r="2" s="3" customFormat="1" customHeight="1" spans="1:9">
       <c r="A2" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>18</v>
@@ -3747,13 +3753,13 @@
     </row>
     <row r="5" s="3" customFormat="1" customHeight="1" spans="1:9">
       <c r="A5" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
@@ -3814,16 +3820,16 @@
         <v>59</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I1" s="14" t="s">
         <v>8</v>
@@ -3837,34 +3843,34 @@
     </row>
     <row r="2" customFormat="1" spans="1:11">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>18</v>
@@ -3902,34 +3908,34 @@
     </row>
     <row r="8" customFormat="1" spans="1:11">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8" t="s">
+        <v>97</v>
+      </c>
+      <c r="H8" t="s">
+        <v>69</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="E8" t="s">
-        <v>92</v>
-      </c>
-      <c r="F8" t="s">
-        <v>92</v>
-      </c>
-      <c r="G8" t="s">
-        <v>96</v>
-      </c>
-      <c r="H8" t="s">
-        <v>68</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>94</v>
-      </c>
       <c r="J8" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>18</v>
@@ -3943,34 +3949,34 @@
     </row>
     <row r="10" customFormat="1" spans="1:11">
       <c r="A10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>18</v>
@@ -3978,34 +3984,34 @@
     </row>
     <row r="11" customFormat="1" spans="1:11">
       <c r="A11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>18</v>
@@ -4013,34 +4019,34 @@
     </row>
     <row r="12" customFormat="1" spans="1:11">
       <c r="A12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>18</v>
@@ -4048,59 +4054,59 @@
     </row>
     <row r="13" customFormat="1" ht="68" customHeight="1" spans="1:11">
       <c r="A13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D13" t="s">
         <v>57</v>
       </c>
       <c r="E13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:3">
       <c r="A14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="1:3">
       <c r="A15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="1:1">
@@ -4162,25 +4168,25 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>8</v>
@@ -4194,19 +4200,19 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>57</v>
@@ -4215,39 +4221,39 @@
         <v>57</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>57</v>
@@ -4256,22 +4262,22 @@
         <v>57</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" ht="16.8" spans="3:3">
@@ -4328,25 +4334,25 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>8</v>
@@ -4360,19 +4366,19 @@
     </row>
     <row r="2" s="4" customFormat="1" spans="1:13">
       <c r="A2" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>57</v>
@@ -4381,39 +4387,39 @@
         <v>57</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>57</v>
@@ -4422,30 +4428,30 @@
         <v>57</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="3:14">
       <c r="C5" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" s="4" customFormat="1" ht="16.8" spans="3:3">
